--- a/inst/apps/GreatPlainsBCGCalc/external/RMD/files/References.xlsx
+++ b/inst/apps/GreatPlainsBCGCalc/external/RMD/files/References.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/GreatPlainsBCGCalc/inst/apps/GreatPlainsBCGCalc/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\GreatPlainsBCGCalc\inst\apps\GreatPlainsBCGCalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC14BF89-587B-44DE-8692-B78FD93876DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343B59A-81D3-407B-94FE-1E035A920E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Numerous publications are available online.</t>
   </si>
   <si>
-    <t>Kansas MMI (Tetra Tech 2023) [&lt;a href="https://github.com/Blocktt/GreatPlainsBCGCalc/raw/main/inst/apps/GreatPlainsBCGCalc/www/links/KS_MMI_FinalReport.zip" target="blank"&gt;ZIP&lt;/a&gt;]</t>
-  </si>
-  <si>
     <t>Missouri Biological Criteria for Stream Fish (Doisy et al. 2008) [&lt;a href="https://github.com/Blocktt/GreatPlainsBCGCalc/raw/main/inst/apps/GreatPlainsBCGCalc/www/links/MO_RAM_biocriteria_final_report.pdf" target="blank"&gt;PDF&lt;/a&gt;]</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
   </si>
   <si>
     <t>Nebraska Biological Monitoring (Bazata 2011) [&lt;a href="https://github.com/Blocktt/GreatPlainsBCGCalc/raw/main/inst/apps/GreatPlainsBCGCalc/www/links/NebrStreamBiolMonitorReport20042008.pdf" target="blank"&gt;PDF&lt;/a&gt;]</t>
+  </si>
+  <si>
+    <t>Kansas MMI (Tetra Tech 2023) [&lt;a href="https://tetratech-wtr-wne.shinyapps.io/KDHE_BugMMI/" target="blank"&gt;URL&lt;/a&gt;]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -147,6 +155,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -164,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +443,8 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -485,9 +493,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -503,15 +511,15 @@
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -519,10 +527,10 @@
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
